--- a/natmiOut/OldD2/LR-pairs_lrc2p/Efna5-Epha3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Efna5-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -91,7 +94,10 @@
     <t>Epha3</t>
   </si>
   <si>
-    <t>Neutro</t>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.38296677097106</v>
+        <v>0.386502</v>
       </c>
       <c r="H2">
-        <v>0.38296677097106</v>
+        <v>0.773004</v>
       </c>
       <c r="I2">
-        <v>0.2310940032498789</v>
+        <v>0.2023774294220003</v>
       </c>
       <c r="J2">
-        <v>0.2310940032498789</v>
+        <v>0.1704859662986497</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>10.3476819803069</v>
+        <v>0.0147745</v>
       </c>
       <c r="N2">
-        <v>10.3476819803069</v>
+        <v>0.029549</v>
       </c>
       <c r="O2">
-        <v>0.9397314032634053</v>
+        <v>0.001149981856525043</v>
       </c>
       <c r="P2">
-        <v>0.9397314032634053</v>
+        <v>0.0007958682187241619</v>
       </c>
       <c r="Q2">
-        <v>3.962818355033558</v>
+        <v>0.005710373799</v>
       </c>
       <c r="R2">
-        <v>3.962818355033558</v>
+        <v>0.022841495196</v>
       </c>
       <c r="S2">
-        <v>0.2171662919597667</v>
+        <v>0.0002327303720054777</v>
       </c>
       <c r="T2">
-        <v>0.2171662919597667</v>
+        <v>0.0001356843623155738</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.38296677097106</v>
+        <v>0.386502</v>
       </c>
       <c r="H3">
-        <v>0.38296677097106</v>
+        <v>0.773004</v>
       </c>
       <c r="I3">
-        <v>0.2310940032498789</v>
+        <v>0.2023774294220003</v>
       </c>
       <c r="J3">
-        <v>0.2310940032498789</v>
+        <v>0.1704859662986497</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.113062531161492</v>
+        <v>11.243073</v>
       </c>
       <c r="N3">
-        <v>0.113062531161492</v>
+        <v>33.729219</v>
       </c>
       <c r="O3">
-        <v>0.01026784658313882</v>
+        <v>0.8751111686748507</v>
       </c>
       <c r="P3">
-        <v>0.01026784658313882</v>
+        <v>0.9084575939790571</v>
       </c>
       <c r="Q3">
-        <v>0.04329919247673144</v>
+        <v>4.345470200646001</v>
       </c>
       <c r="R3">
-        <v>0.04329919247673144</v>
+        <v>26.072821203876</v>
       </c>
       <c r="S3">
-        <v>0.002372837771653141</v>
+        <v>0.1771027487748988</v>
       </c>
       <c r="T3">
-        <v>0.002372837771653141</v>
+        <v>0.1548792707508659</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,433 +652,1363 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.38296677097106</v>
+        <v>0.386502</v>
       </c>
       <c r="H4">
-        <v>0.38296677097106</v>
+        <v>0.773004</v>
       </c>
       <c r="I4">
-        <v>0.2310940032498789</v>
+        <v>0.2023774294220003</v>
       </c>
       <c r="J4">
-        <v>0.2310940032498789</v>
+        <v>0.1704859662986497</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.550574195528632</v>
+        <v>0.04370233333333334</v>
       </c>
       <c r="N4">
-        <v>0.550574195528632</v>
+        <v>0.131107</v>
       </c>
       <c r="O4">
-        <v>0.05000075015345577</v>
+        <v>0.003401596698442785</v>
       </c>
       <c r="P4">
-        <v>0.05000075015345577</v>
+        <v>0.003531215762031497</v>
       </c>
       <c r="Q4">
-        <v>0.2108516218415892</v>
+        <v>0.016891039238</v>
       </c>
       <c r="R4">
-        <v>0.2108516218415892</v>
+        <v>0.101346235428</v>
       </c>
       <c r="S4">
-        <v>0.01155487351845909</v>
+        <v>0.0006884063957612139</v>
       </c>
       <c r="T4">
-        <v>0.01155487351845909</v>
+        <v>0.0006020227313989624</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.522573029932645</v>
+        <v>0.386502</v>
       </c>
       <c r="H5">
-        <v>0.522573029932645</v>
+        <v>0.773004</v>
       </c>
       <c r="I5">
-        <v>0.3153367410215326</v>
+        <v>0.2023774294220003</v>
       </c>
       <c r="J5">
-        <v>0.3153367410215326</v>
+        <v>0.1704859662986497</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>10.3476819803069</v>
+        <v>0.03203666666666666</v>
       </c>
       <c r="N5">
-        <v>10.3476819803069</v>
+        <v>0.09611</v>
       </c>
       <c r="O5">
-        <v>0.9397314032634053</v>
+        <v>0.002493592704335665</v>
       </c>
       <c r="P5">
-        <v>0.9397314032634053</v>
+        <v>0.002588611949696409</v>
       </c>
       <c r="Q5">
-        <v>5.407419525228409</v>
+        <v>0.01238223574</v>
       </c>
       <c r="R5">
-        <v>5.407419525228409</v>
+        <v>0.07429341444</v>
       </c>
       <c r="S5">
-        <v>0.2963318381406739</v>
+        <v>0.0005046468815289059</v>
       </c>
       <c r="T5">
-        <v>0.2963318381406739</v>
+        <v>0.000441322009616224</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.522573029932645</v>
+        <v>0.386502</v>
       </c>
       <c r="H6">
-        <v>0.522573029932645</v>
+        <v>0.773004</v>
       </c>
       <c r="I6">
-        <v>0.3153367410215326</v>
+        <v>0.2023774294220003</v>
       </c>
       <c r="J6">
-        <v>0.3153367410215326</v>
+        <v>0.1704859662986497</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.113062531161492</v>
+        <v>0.114006</v>
       </c>
       <c r="N6">
-        <v>0.113062531161492</v>
+        <v>0.342018</v>
       </c>
       <c r="O6">
-        <v>0.01026784658313882</v>
+        <v>0.008873723749365056</v>
       </c>
       <c r="P6">
-        <v>0.01026784658313882</v>
+        <v>0.009211860179078832</v>
       </c>
       <c r="Q6">
-        <v>0.05908342948091496</v>
+        <v>0.04406354701200001</v>
       </c>
       <c r="R6">
-        <v>0.05908342948091496</v>
+        <v>0.2643812820720001</v>
       </c>
       <c r="S6">
-        <v>0.003237829278836075</v>
+        <v>0.001795841401797455</v>
       </c>
       <c r="T6">
-        <v>0.003237829278836075</v>
+        <v>0.001570492884038307</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.522573029932645</v>
+        <v>0.386502</v>
       </c>
       <c r="H7">
-        <v>0.522573029932645</v>
+        <v>0.773004</v>
       </c>
       <c r="I7">
-        <v>0.3153367410215326</v>
+        <v>0.2023774294220003</v>
       </c>
       <c r="J7">
-        <v>0.3153367410215326</v>
+        <v>0.1704859662986497</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.550574195528632</v>
+        <v>1.4000015</v>
       </c>
       <c r="N7">
-        <v>0.550574195528632</v>
+        <v>2.800003</v>
       </c>
       <c r="O7">
-        <v>0.05000075015345577</v>
+        <v>0.1089699363164807</v>
       </c>
       <c r="P7">
-        <v>0.05000075015345577</v>
+        <v>0.07541484991141187</v>
       </c>
       <c r="Q7">
-        <v>0.2877152255601257</v>
+        <v>0.5411033797529999</v>
       </c>
       <c r="R7">
-        <v>0.2877152255601257</v>
+        <v>2.164413519012</v>
       </c>
       <c r="S7">
-        <v>0.01576707360202264</v>
+        <v>0.02205305559600844</v>
       </c>
       <c r="T7">
-        <v>0.01576707360202264</v>
+        <v>0.01285717356041469</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7516506306323441</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H8">
-        <v>0.7516506306323441</v>
+        <v>2.079365</v>
       </c>
       <c r="I8">
-        <v>0.4535692557285884</v>
+        <v>0.3629274393837356</v>
       </c>
       <c r="J8">
-        <v>0.4535692557285884</v>
+        <v>0.4586037734767113</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>10.3476819803069</v>
+        <v>0.0147745</v>
       </c>
       <c r="N8">
-        <v>10.3476819803069</v>
+        <v>0.029549</v>
       </c>
       <c r="O8">
-        <v>0.9397314032634053</v>
+        <v>0.001149981856525043</v>
       </c>
       <c r="P8">
-        <v>0.9397314032634053</v>
+        <v>0.0007958682187241619</v>
       </c>
       <c r="Q8">
-        <v>7.777841686080624</v>
+        <v>0.01024052606416667</v>
       </c>
       <c r="R8">
-        <v>7.777841686080624</v>
+        <v>0.061443156385</v>
       </c>
       <c r="S8">
-        <v>0.4262332731629647</v>
+        <v>0.0004173599705263881</v>
       </c>
       <c r="T8">
-        <v>0.4262332731629647</v>
+        <v>0.0003649881682970893</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7516506306323441</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H9">
-        <v>0.7516506306323441</v>
+        <v>2.079365</v>
       </c>
       <c r="I9">
-        <v>0.4535692557285884</v>
+        <v>0.3629274393837356</v>
       </c>
       <c r="J9">
-        <v>0.4535692557285884</v>
+        <v>0.4586037734767113</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.113062531161492</v>
+        <v>11.243073</v>
       </c>
       <c r="N9">
-        <v>0.113062531161492</v>
+        <v>33.729219</v>
       </c>
       <c r="O9">
-        <v>0.01026784658313882</v>
+        <v>0.8751111686748507</v>
       </c>
       <c r="P9">
-        <v>0.01026784658313882</v>
+        <v>0.9084575939790571</v>
       </c>
       <c r="Q9">
-        <v>0.0849835228484245</v>
+        <v>7.792817496215002</v>
       </c>
       <c r="R9">
-        <v>0.0849835228484245</v>
+        <v>70.135357465935</v>
       </c>
       <c r="S9">
-        <v>0.004657179532649605</v>
+        <v>0.3176018556232719</v>
       </c>
       <c r="T9">
-        <v>0.004657179532649605</v>
+        <v>0.4166220806423697</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.6931216666666667</v>
+      </c>
+      <c r="H10">
+        <v>2.079365</v>
+      </c>
+      <c r="I10">
+        <v>0.3629274393837356</v>
+      </c>
+      <c r="J10">
+        <v>0.4586037734767113</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.04370233333333334</v>
+      </c>
+      <c r="N10">
+        <v>0.131107</v>
+      </c>
+      <c r="O10">
+        <v>0.003401596698442785</v>
+      </c>
+      <c r="P10">
+        <v>0.003531215762031497</v>
+      </c>
+      <c r="Q10">
+        <v>0.03029103411722223</v>
+      </c>
+      <c r="R10">
+        <v>0.272619307055</v>
+      </c>
+      <c r="S10">
+        <v>0.001234532779582009</v>
+      </c>
+      <c r="T10">
+        <v>0.001619428873428085</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.6931216666666667</v>
+      </c>
+      <c r="H11">
+        <v>2.079365</v>
+      </c>
+      <c r="I11">
+        <v>0.3629274393837356</v>
+      </c>
+      <c r="J11">
+        <v>0.4586037734767113</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.03203666666666666</v>
+      </c>
+      <c r="N11">
+        <v>0.09611</v>
+      </c>
+      <c r="O11">
+        <v>0.002493592704335665</v>
+      </c>
+      <c r="P11">
+        <v>0.002588611949696409</v>
+      </c>
+      <c r="Q11">
+        <v>0.02220530779444444</v>
+      </c>
+      <c r="R11">
+        <v>0.19984777015</v>
+      </c>
+      <c r="S11">
+        <v>0.0009049932150505073</v>
+      </c>
+      <c r="T11">
+        <v>0.00118714720819768</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.6931216666666667</v>
+      </c>
+      <c r="H12">
+        <v>2.079365</v>
+      </c>
+      <c r="I12">
+        <v>0.3629274393837356</v>
+      </c>
+      <c r="J12">
+        <v>0.4586037734767113</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.114006</v>
+      </c>
+      <c r="N12">
+        <v>0.342018</v>
+      </c>
+      <c r="O12">
+        <v>0.008873723749365056</v>
+      </c>
+      <c r="P12">
+        <v>0.009211860179078832</v>
+      </c>
+      <c r="Q12">
+        <v>0.07902002873000001</v>
+      </c>
+      <c r="R12">
+        <v>0.7111802585700001</v>
+      </c>
+      <c r="S12">
+        <v>0.003220517838155701</v>
+      </c>
+      <c r="T12">
+        <v>0.004224593838865406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.6931216666666667</v>
+      </c>
+      <c r="H13">
+        <v>2.079365</v>
+      </c>
+      <c r="I13">
+        <v>0.3629274393837356</v>
+      </c>
+      <c r="J13">
+        <v>0.4586037734767113</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.4000015</v>
+      </c>
+      <c r="N13">
+        <v>2.800003</v>
+      </c>
+      <c r="O13">
+        <v>0.1089699363164807</v>
+      </c>
+      <c r="P13">
+        <v>0.07541484991141187</v>
+      </c>
+      <c r="Q13">
+        <v>0.9703713730158334</v>
+      </c>
+      <c r="R13">
+        <v>5.822228238095</v>
+      </c>
+      <c r="S13">
+        <v>0.03954817995714908</v>
+      </c>
+      <c r="T13">
+        <v>0.03458553474555331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.7516506306323441</v>
-      </c>
-      <c r="H10">
-        <v>0.7516506306323441</v>
-      </c>
-      <c r="I10">
-        <v>0.4535692557285884</v>
-      </c>
-      <c r="J10">
-        <v>0.4535692557285884</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.550574195528632</v>
-      </c>
-      <c r="N10">
-        <v>0.550574195528632</v>
-      </c>
-      <c r="O10">
-        <v>0.05000075015345577</v>
-      </c>
-      <c r="P10">
-        <v>0.05000075015345577</v>
-      </c>
-      <c r="Q10">
-        <v>0.4138394412789917</v>
-      </c>
-      <c r="R10">
-        <v>0.4138394412789917</v>
-      </c>
-      <c r="S10">
-        <v>0.02267880303297404</v>
-      </c>
-      <c r="T10">
-        <v>0.02267880303297404</v>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.02138366666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.064151</v>
+      </c>
+      <c r="I14">
+        <v>0.011196763513816</v>
+      </c>
+      <c r="J14">
+        <v>0.01414849758089826</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.0147745</v>
+      </c>
+      <c r="N14">
+        <v>0.029549</v>
+      </c>
+      <c r="O14">
+        <v>0.001149981856525043</v>
+      </c>
+      <c r="P14">
+        <v>0.0007958682187241619</v>
+      </c>
+      <c r="Q14">
+        <v>0.0003159329831666666</v>
+      </c>
+      <c r="R14">
+        <v>0.001895597899</v>
+      </c>
+      <c r="S14">
+        <v>1.287607489268999E-05</v>
+      </c>
+      <c r="T14">
+        <v>1.126033956733261E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.02138366666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.064151</v>
+      </c>
+      <c r="I15">
+        <v>0.011196763513816</v>
+      </c>
+      <c r="J15">
+        <v>0.01414849758089826</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>11.243073</v>
+      </c>
+      <c r="N15">
+        <v>33.729219</v>
+      </c>
+      <c r="O15">
+        <v>0.8751111686748507</v>
+      </c>
+      <c r="P15">
+        <v>0.9084575939790571</v>
+      </c>
+      <c r="Q15">
+        <v>0.240418125341</v>
+      </c>
+      <c r="R15">
+        <v>2.163763128069</v>
+      </c>
+      <c r="S15">
+        <v>0.009798412803951452</v>
+      </c>
+      <c r="T15">
+        <v>0.01285331007076134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.02138366666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.064151</v>
+      </c>
+      <c r="I16">
+        <v>0.011196763513816</v>
+      </c>
+      <c r="J16">
+        <v>0.01414849758089826</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.04370233333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.131107</v>
+      </c>
+      <c r="O16">
+        <v>0.003401596698442785</v>
+      </c>
+      <c r="P16">
+        <v>0.003531215762031497</v>
+      </c>
+      <c r="Q16">
+        <v>0.0009345161285555556</v>
+      </c>
+      <c r="R16">
+        <v>0.008410645156999999</v>
+      </c>
+      <c r="S16">
+        <v>3.808687380184115E-05</v>
+      </c>
+      <c r="T16">
+        <v>4.996139766673243E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.02138366666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.064151</v>
+      </c>
+      <c r="I17">
+        <v>0.011196763513816</v>
+      </c>
+      <c r="J17">
+        <v>0.01414849758089826</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.03203666666666666</v>
+      </c>
+      <c r="N17">
+        <v>0.09611</v>
+      </c>
+      <c r="O17">
+        <v>0.002493592704335665</v>
+      </c>
+      <c r="P17">
+        <v>0.002588611949696409</v>
+      </c>
+      <c r="Q17">
+        <v>0.0006850614011111111</v>
+      </c>
+      <c r="R17">
+        <v>0.00616555261</v>
+      </c>
+      <c r="S17">
+        <v>2.792016781022335E-05</v>
+      </c>
+      <c r="T17">
+        <v>3.662496990816397E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.02138366666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.064151</v>
+      </c>
+      <c r="I18">
+        <v>0.011196763513816</v>
+      </c>
+      <c r="J18">
+        <v>0.01414849758089826</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.114006</v>
+      </c>
+      <c r="N18">
+        <v>0.342018</v>
+      </c>
+      <c r="O18">
+        <v>0.008873723749365056</v>
+      </c>
+      <c r="P18">
+        <v>0.009211860179078832</v>
+      </c>
+      <c r="Q18">
+        <v>0.002437866302</v>
+      </c>
+      <c r="R18">
+        <v>0.021940796718</v>
+      </c>
+      <c r="S18">
+        <v>9.935698630857321E-05</v>
+      </c>
+      <c r="T18">
+        <v>0.0001303339814592698</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.02138366666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.064151</v>
+      </c>
+      <c r="I19">
+        <v>0.011196763513816</v>
+      </c>
+      <c r="J19">
+        <v>0.01414849758089826</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.4000015</v>
+      </c>
+      <c r="N19">
+        <v>2.800003</v>
+      </c>
+      <c r="O19">
+        <v>0.1089699363164807</v>
+      </c>
+      <c r="P19">
+        <v>0.07541484991141187</v>
+      </c>
+      <c r="Q19">
+        <v>0.02993716540883333</v>
+      </c>
+      <c r="R19">
+        <v>0.179622992453</v>
+      </c>
+      <c r="S19">
+        <v>0.001220110607051225</v>
+      </c>
+      <c r="T19">
+        <v>0.001067006821535416</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.8088005</v>
+      </c>
+      <c r="H20">
+        <v>1.617601</v>
+      </c>
+      <c r="I20">
+        <v>0.4234983676804481</v>
+      </c>
+      <c r="J20">
+        <v>0.3567617626437406</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.0147745</v>
+      </c>
+      <c r="N20">
+        <v>0.029549</v>
+      </c>
+      <c r="O20">
+        <v>0.001149981856525043</v>
+      </c>
+      <c r="P20">
+        <v>0.0007958682187241619</v>
+      </c>
+      <c r="Q20">
+        <v>0.01194962298725</v>
+      </c>
+      <c r="R20">
+        <v>0.047798491949</v>
+      </c>
+      <c r="S20">
+        <v>0.0004870154391004868</v>
+      </c>
+      <c r="T20">
+        <v>0.000283935348544166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.8088005</v>
+      </c>
+      <c r="H21">
+        <v>1.617601</v>
+      </c>
+      <c r="I21">
+        <v>0.4234983676804481</v>
+      </c>
+      <c r="J21">
+        <v>0.3567617626437406</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>11.243073</v>
+      </c>
+      <c r="N21">
+        <v>33.729219</v>
+      </c>
+      <c r="O21">
+        <v>0.8751111686748507</v>
+      </c>
+      <c r="P21">
+        <v>0.9084575939790571</v>
+      </c>
+      <c r="Q21">
+        <v>9.093403063936501</v>
+      </c>
+      <c r="R21">
+        <v>54.560418383619</v>
+      </c>
+      <c r="S21">
+        <v>0.3706081514727286</v>
+      </c>
+      <c r="T21">
+        <v>0.3241029325150601</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.8088005</v>
+      </c>
+      <c r="H22">
+        <v>1.617601</v>
+      </c>
+      <c r="I22">
+        <v>0.4234983676804481</v>
+      </c>
+      <c r="J22">
+        <v>0.3567617626437406</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.04370233333333334</v>
+      </c>
+      <c r="N22">
+        <v>0.131107</v>
+      </c>
+      <c r="O22">
+        <v>0.003401596698442785</v>
+      </c>
+      <c r="P22">
+        <v>0.003531215762031497</v>
+      </c>
+      <c r="Q22">
+        <v>0.03534646905116667</v>
+      </c>
+      <c r="R22">
+        <v>0.212078814307</v>
+      </c>
+      <c r="S22">
+        <v>0.001440570649297721</v>
+      </c>
+      <c r="T22">
+        <v>0.001259802759537717</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.8088005</v>
+      </c>
+      <c r="H23">
+        <v>1.617601</v>
+      </c>
+      <c r="I23">
+        <v>0.4234983676804481</v>
+      </c>
+      <c r="J23">
+        <v>0.3567617626437406</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.03203666666666666</v>
+      </c>
+      <c r="N23">
+        <v>0.09611</v>
+      </c>
+      <c r="O23">
+        <v>0.002493592704335665</v>
+      </c>
+      <c r="P23">
+        <v>0.002588611949696409</v>
+      </c>
+      <c r="Q23">
+        <v>0.02591127201833333</v>
+      </c>
+      <c r="R23">
+        <v>0.15546763211</v>
+      </c>
+      <c r="S23">
+        <v>0.001056032439946029</v>
+      </c>
+      <c r="T23">
+        <v>0.0009235177619743409</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.8088005</v>
+      </c>
+      <c r="H24">
+        <v>1.617601</v>
+      </c>
+      <c r="I24">
+        <v>0.4234983676804481</v>
+      </c>
+      <c r="J24">
+        <v>0.3567617626437406</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.114006</v>
+      </c>
+      <c r="N24">
+        <v>0.342018</v>
+      </c>
+      <c r="O24">
+        <v>0.008873723749365056</v>
+      </c>
+      <c r="P24">
+        <v>0.009211860179078832</v>
+      </c>
+      <c r="Q24">
+        <v>0.09220810980300001</v>
+      </c>
+      <c r="R24">
+        <v>0.5532486588180001</v>
+      </c>
+      <c r="S24">
+        <v>0.003758007523103327</v>
+      </c>
+      <c r="T24">
+        <v>0.003286439474715848</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.8088005</v>
+      </c>
+      <c r="H25">
+        <v>1.617601</v>
+      </c>
+      <c r="I25">
+        <v>0.4234983676804481</v>
+      </c>
+      <c r="J25">
+        <v>0.3567617626437406</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.4000015</v>
+      </c>
+      <c r="N25">
+        <v>2.800003</v>
+      </c>
+      <c r="O25">
+        <v>0.1089699363164807</v>
+      </c>
+      <c r="P25">
+        <v>0.07541484991141187</v>
+      </c>
+      <c r="Q25">
+        <v>1.13232191320075</v>
+      </c>
+      <c r="R25">
+        <v>4.529287652803</v>
+      </c>
+      <c r="S25">
+        <v>0.04614859015627197</v>
+      </c>
+      <c r="T25">
+        <v>0.02690513478390844</v>
       </c>
     </row>
   </sheetData>
